--- a/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Complete Regulator/Bainbasat_input.xlsx
+++ b/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Complete Regulator/Bainbasat_input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,7 +600,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -614,7 +614,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -626,7 +626,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -636,14 +636,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1019,9 +1019,9 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="12.140625" customWidth="1"/>
+    <col min="3" max="4" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1233,9 +1233,9 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -1257,14 +1257,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1311,7 +1311,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1463,10 +1463,10 @@
       <selection activeCell="E9" sqref="E9:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1655,10 +1655,10 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
